--- a/individual_results/avey/284.xlsx
+++ b/individual_results/avey/284.xlsx
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E2" t="n">
         <v>0.4</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="E4" t="n">
         <v>0.5714285714285715</v>
@@ -720,12 +720,8 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.2222222222222222</v>
-      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
         <v>0.6666666666666666</v>
@@ -755,7 +751,7 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.7692307692307692</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="E5" t="n">
         <v>0.7692307692307692</v>
@@ -775,12 +771,8 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
         <v>0.5555555555555556</v>
@@ -814,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5950427489208391</v>
+        <v>0.2754115523761866</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -847,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.26064801430716</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2943107231069255</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -1033,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -1101,9 +1093,7 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="n">
-        <v>5</v>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
         <v>1</v>
       </c>
@@ -1122,12 +1112,8 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
-        <v>8</v>
-      </c>
-      <c r="P10" t="n">
-        <v>6</v>
-      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
         <v>1</v>
